--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/管理费用.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/管理费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>116.8524</v>
-      </c>
-      <c r="C2" t="n">
-        <v>362.64522</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.93151</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05775</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.63403</v>
-      </c>
-      <c r="G2" t="n">
-        <v>246.99809</v>
-      </c>
-      <c r="H2" t="n">
-        <v>42.60631</v>
-      </c>
-      <c r="I2" t="n">
-        <v>101.57069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>36.06221</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3304.49344</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18.52631</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.32028</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.1721</v>
-      </c>
-      <c r="O2" t="n">
-        <v>156.56393</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.57389000000001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>33.99831</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.77532</v>
-      </c>
-      <c r="S2" t="n">
-        <v>10.40981</v>
-      </c>
-      <c r="T2" t="n">
-        <v>23.88019</v>
-      </c>
-      <c r="U2" t="n">
-        <v>20.48388</v>
-      </c>
-      <c r="V2" t="n">
-        <v>75.23744000000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.70359</v>
-      </c>
-      <c r="X2" t="n">
-        <v>193.51804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>196.57885</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>167.93934</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>95.70371</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>5.74147</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>162.71275</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>157.48938</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>125.30147</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>48.52938</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>35.25426</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>32.12681</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>127.51314</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>19.92086</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>32.51106</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>67.67444999999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>66.71723</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>298.07424</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.08614</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>114.26203</v>
-      </c>
-      <c r="C3" t="n">
-        <v>416.28072</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.58513</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03267</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.58972</v>
-      </c>
-      <c r="G3" t="n">
-        <v>261.01159</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27.00742</v>
-      </c>
-      <c r="I3" t="n">
-        <v>110.18298</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38.67071</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3482.19042</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20.11538</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.45469</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.45137</v>
-      </c>
-      <c r="O3" t="n">
-        <v>160.73973</v>
-      </c>
-      <c r="P3" t="n">
-        <v>88.83928</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>32.32867</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11.48462</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9.280010000000001</v>
-      </c>
-      <c r="T3" t="n">
-        <v>22.12851</v>
-      </c>
-      <c r="U3" t="n">
-        <v>23.39797</v>
-      </c>
-      <c r="V3" t="n">
-        <v>103.49902</v>
-      </c>
-      <c r="W3" t="n">
-        <v>20.79837</v>
-      </c>
-      <c r="X3" t="n">
-        <v>229.86833</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>251.50199</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>173.68701</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>102.12619</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.55627</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>167.0545</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>171.18295</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>104.424</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>52.46736</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>34.93088</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32.96825</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>119.75576</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21.97129</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29.27107</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>56.55859</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>64.74504</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>303.53565</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10.87469</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>120.21521</v>
-      </c>
-      <c r="C4" t="n">
-        <v>480.47575</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.22107</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03755</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.86336</v>
-      </c>
-      <c r="G4" t="n">
-        <v>255.48275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27.0502</v>
-      </c>
-      <c r="I4" t="n">
-        <v>114.54717</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.23553</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3701.89838</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.70569</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.33176</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.5965</v>
-      </c>
-      <c r="O4" t="n">
-        <v>175.94791</v>
-      </c>
-      <c r="P4" t="n">
-        <v>83.68367000000001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>33.54889</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.47595</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.77116</v>
-      </c>
-      <c r="T4" t="n">
-        <v>21.99597</v>
-      </c>
-      <c r="U4" t="n">
-        <v>26.1898</v>
-      </c>
-      <c r="V4" t="n">
-        <v>128.38311</v>
-      </c>
-      <c r="W4" t="n">
-        <v>22.61691</v>
-      </c>
-      <c r="X4" t="n">
-        <v>290.73914</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>291.81688</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>194.25286</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>99.41947999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.61134</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>147.93831</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>170.2517</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>95.63421</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>57.1731</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>36.1851</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>31.33158</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>119.00348</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>22.06342</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>28.59457</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>50.80987</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>64.48305999999999</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>321.95001</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.29423</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
